--- a/data/input/absenteeism_data_31.xlsx
+++ b/data/input/absenteeism_data_31.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32803</v>
+        <v>22223</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sophia Azevedo</t>
+          <t>Raquel Aragão</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,56 +494,56 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>4995.48</v>
+        <v>8831.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70424</v>
+        <v>69056</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mariane Aragão</t>
+          <t>Maria Vitória Farias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>11530.76</v>
+        <v>9152.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>51228</v>
+        <v>66129</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Augusto das Neves</t>
+          <t>Benjamin Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,82 +555,82 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45083</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>5257.81</v>
+        <v>10814.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95361</v>
+        <v>58602</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiza Gonçalves</t>
+          <t>Erick Moraes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45101</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>8545.780000000001</v>
+        <v>4267.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>95486</v>
+        <v>12254</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Moura</t>
+          <t>Gabrielly Vieira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>4921.9</v>
+        <v>11732.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30985</v>
+        <v>72722</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gabriela Gomes</t>
+          <t>Pietra da Rosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,85 +639,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>7748.34</v>
+        <v>9097.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61795</v>
+        <v>75883</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Carolina Rocha</t>
+          <t>Maria Sophia Pinto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45100</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>11243.01</v>
+        <v>8745.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9941</v>
+        <v>66421</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elisa Dias</t>
+          <t>Mariana Mendes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>4044.91</v>
+        <v>6080.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>97258</v>
+        <v>43747</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Enrico Vieira</t>
+          <t>Anthony da Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>10156.53</v>
+        <v>11400.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81653</v>
+        <v>87757</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enzo Gabriel das Neves</t>
+          <t>Luiza Porto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>6872.47</v>
+        <v>8350.280000000001</v>
       </c>
     </row>
   </sheetData>
